--- a/params.xlsx
+++ b/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\MATLAB\ProCiencia\AttenuationImaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F02DE8-3854-4B0D-99AA-478A51A719B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5407A35C-C14C-4FF1-8035-D451779FD242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4164" yWindow="3144" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="582">
   <si>
     <t># PACS</t>
   </si>
@@ -1760,6 +1760,18 @@
   </si>
   <si>
     <t>patient</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>clase</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2045,6 +2057,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2286,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A37E7-7016-47B5-8CA9-AE1F61892DCC}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2298,9 +2313,10 @@
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>577</v>
       </c>
@@ -2322,8 +2338,11 @@
       <c r="G1" s="49" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="56" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="52">
         <v>134135</v>
       </c>
@@ -2345,8 +2364,11 @@
       <c r="G2" s="50" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="52">
         <v>189260</v>
       </c>
@@ -2368,8 +2390,11 @@
       <c r="G3" s="50" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="54" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="53">
         <v>190029</v>
       </c>
@@ -2391,8 +2416,11 @@
       <c r="G4" s="51" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="55" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="52">
         <v>199031</v>
       </c>
@@ -2414,8 +2442,11 @@
       <c r="G5" s="50" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="53">
         <v>203704</v>
       </c>
@@ -2437,8 +2468,11 @@
       <c r="G6" s="51" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="54" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="52">
         <v>254581</v>
       </c>
@@ -2460,8 +2494,11 @@
       <c r="G7" s="50" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="53">
         <v>265002</v>
       </c>
@@ -2483,8 +2520,11 @@
       <c r="G8" s="51" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="53">
         <v>266844</v>
       </c>
@@ -2505,6 +2545,9 @@
       </c>
       <c r="G9" s="51" t="s">
         <v>573</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\MATLAB\ProCiencia\AttenuationImaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5407A35C-C14C-4FF1-8035-D451779FD242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D50C47-826E-4789-9127-3D2A9BB2F1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="adenomatoso" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="TiroidesGanglios" sheetId="1" r:id="rId4"/>
+    <sheet name="Antiguo" sheetId="5" r:id="rId1"/>
+    <sheet name="nuevo" sheetId="3" r:id="rId2"/>
+    <sheet name="adenomatoso" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="TiroidesGanglios" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TiroidesGanglios!$A$2:$O$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TiroidesGanglios!$A$2:$O$269</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="582">
   <si>
     <t># PACS</t>
   </si>
@@ -2057,8 +2058,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2300,11 +2301,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A37E7-7016-47B5-8CA9-AE1F61892DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A900BAA-6CAC-4DE6-B883-2CC0FE7E4E88}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="52">
+        <v>134135</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="52">
+        <v>189260</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="53">
+        <v>190029</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="52">
+        <v>199031</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="53">
+        <v>203704</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="52">
+        <v>254581</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="53">
+        <v>265002</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="53">
+        <v>266844</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A37E7-7016-47B5-8CA9-AE1F61892DCC}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2370,16 +2620,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="52">
-        <v>189260</v>
+        <v>199031</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>19</v>
@@ -2391,163 +2641,33 @@
         <v>573</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53">
-        <v>190029</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>567</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="52">
+        <v>254581</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="51" t="s">
+      <c r="D4" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="52">
-        <v>199031</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>573</v>
-      </c>
-      <c r="H5" s="54" t="s">
+      <c r="H4" s="54" t="s">
         <v>578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53">
-        <v>203704</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>567</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="52">
-        <v>254581</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>573</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53">
-        <v>265002</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>572</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
-        <v>266844</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -2555,7 +2675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF811E7-3B6F-427D-9BAB-46522D7F4A0E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2814,7 +2934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D83048D-3DC2-4C9E-ACF3-B4859F4A13A2}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -3293,7 +3413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
